--- a/실무_엑셀_예제_파일/Chapter04/04-008.xlsx
+++ b/실무_엑셀_예제_파일/Chapter04/04-008.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google 드라이브\@ 오빠두 실무엑셀 - 출판\@ 예제파일\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel\실무_엑셀_예제_파일\Chapter04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08FD549F-5347-4E38-8C07-809D9EDFDCBC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB9BFB01-322E-49DD-BB5D-D73D88E05384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="348" windowWidth="11508" windowHeight="11760" xr2:uid="{CF00486B-6D3C-4336-9A2A-AC34C9C6B9B2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{CF00486B-6D3C-4336-9A2A-AC34C9C6B9B2}"/>
   </bookViews>
   <sheets>
     <sheet name="발주서" sheetId="1" r:id="rId1"/>
@@ -19,26 +19,17 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">제품정보!$A$1:$B$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>제품명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -235,7 +226,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -269,17 +260,11 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -615,45 +600,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B175A885-CE2C-45EE-90EF-A36C465C0E7C}">
   <dimension ref="B1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.59765625" customWidth="1"/>
-    <col min="2" max="2" width="12.3984375" customWidth="1"/>
-    <col min="3" max="5" width="10.296875" customWidth="1"/>
-    <col min="8" max="10" width="11.69921875" customWidth="1"/>
+    <col min="1" max="1" width="4.58203125" customWidth="1"/>
+    <col min="2" max="2" width="12.4140625" customWidth="1"/>
+    <col min="3" max="5" width="10.33203125" customWidth="1"/>
+    <col min="8" max="10" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="F1" s="14"/>
-    </row>
-    <row r="2" spans="2:6" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="20" t="s">
+    <row r="1" spans="2:6" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:6" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
       <c r="F2" s="11"/>
     </row>
-    <row r="3" spans="2:6" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:6" ht="7.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
-      <c r="F3" s="14"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="18" t="str">
+      <c r="D4" s="16" t="str">
         <f ca="1">TEXT(TODAY(),"yyyy년 mm월 dd일")</f>
-        <v>2021년 02월 25일</v>
-      </c>
-      <c r="E4" s="19"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
+        <v>2025년 04월 18일</v>
+      </c>
+      <c r="E4" s="17"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
@@ -667,31 +651,35 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B6" s="1"/>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="C6" s="4"/>
-      <c r="D6" s="6" t="str">
+      <c r="D6" s="6">
         <f>IF(B6="","-",VLOOKUP(B6,제품정보!$A$1:$B$9,2,0))</f>
-        <v>-</v>
+        <v>280</v>
       </c>
       <c r="E6" s="4">
         <f>IFERROR(D6*C6,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B7" s="2"/>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B7" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="C7" s="5"/>
-      <c r="D7" s="7" t="str">
+      <c r="D7" s="7">
         <f>IF(B7="","-",VLOOKUP(B7,제품정보!$A$1:$B$9,2,0))</f>
-        <v>-</v>
+        <v>290</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ref="E7:E11" si="0">IFERROR(D7*C7,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B8" s="2"/>
       <c r="C8" s="5"/>
       <c r="D8" s="7" t="str">
@@ -703,7 +691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B9" s="2"/>
       <c r="C9" s="5"/>
       <c r="D9" s="7" t="str">
@@ -715,7 +703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B10" s="2"/>
       <c r="C10" s="5"/>
       <c r="D10" s="7" t="str">
@@ -727,7 +715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B11" s="8"/>
       <c r="C11" s="9"/>
       <c r="D11" s="10" t="str">
@@ -739,18 +727,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="15" t="s">
+    <row r="12" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B12" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="14">
         <f>SUM(C6:C11)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="14">
         <f>SUM(E6:E11)</f>
         <v>0</v>
       </c>
@@ -761,7 +749,26 @@
     <mergeCell ref="B2:E2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="입력 오류" error="수량은 0보다 큰 정수만 입력 가능합니다." sqref="C6:C11" xr:uid="{3E9A27BD-7FC8-4555-8055-7F35590FA7B4}">
+      <formula1>0</formula1>
+      <formula2>10000</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="수량 입력" prompt="기준일의 '마감'재고를 입력합니다._x000a_(단위에 주의해서 입력하세요.)" sqref="C5" xr:uid="{05D9C7EE-C4EB-4023-9E6E-B44E92FBACCC}"/>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1AFD94CB-82C2-409D-B402-3D54372CDE94}">
+          <x14:formula1>
+            <xm:f>제품정보!$A$2:$A$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>B6:B11</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -770,24 +777,24 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.59765625" customWidth="1"/>
-    <col min="2" max="2" width="9.59765625" customWidth="1"/>
+    <col min="1" max="1" width="11.58203125" customWidth="1"/>
+    <col min="2" max="2" width="9.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -795,7 +802,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -803,7 +810,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -811,7 +818,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -819,7 +826,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -827,7 +834,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -835,7 +842,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -843,7 +850,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>9</v>
       </c>
